--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
@@ -9,6 +9,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Stacked area chart'!$A$1:$G$1</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Stacked area chart'!$A$1:$G$14</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -171,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="1mdcrdkk" xfId="1"/>
-    <cellStyle name="1mdcrdkk_Alternate" xfId="2"/>
-    <cellStyle name="ci0vkntb" xfId="3"/>
-    <cellStyle name="ci0vkntb_Alternate" xfId="4"/>
-    <cellStyle name="emxlehlh" xfId="5"/>
-    <cellStyle name="emxlehlh_Alternate" xfId="6"/>
-    <cellStyle name="ejv5dryl" xfId="7"/>
-    <cellStyle name="ejv5dryl_Alternate" xfId="8"/>
-    <cellStyle name="xvc1rixv" xfId="9"/>
-    <cellStyle name="xvc1rixv_Alternate" xfId="10"/>
+    <cellStyle name="r4dtiaxd" xfId="1"/>
+    <cellStyle name="r4dtiaxd_Alternate" xfId="2"/>
+    <cellStyle name="pkor4i5o" xfId="3"/>
+    <cellStyle name="pkor4i5o_Alternate" xfId="4"/>
+    <cellStyle name="whkp4ywv" xfId="5"/>
+    <cellStyle name="whkp4ywv_Alternate" xfId="6"/>
+    <cellStyle name="bv0gdcvp" xfId="7"/>
+    <cellStyle name="bv0gdcvp_Alternate" xfId="8"/>
+    <cellStyle name="ekrmb01r" xfId="9"/>
+    <cellStyle name="ekrmb01r_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -516,6 +517,15 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="1" width="13.0157470703125" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="11.0456023216248" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="17.8203411102295" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="17.8101110458374" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="12.6947841644287" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="11" t="s">
@@ -841,6 +851,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
@@ -172,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="r4dtiaxd" xfId="1"/>
-    <cellStyle name="r4dtiaxd_Alternate" xfId="2"/>
-    <cellStyle name="pkor4i5o" xfId="3"/>
-    <cellStyle name="pkor4i5o_Alternate" xfId="4"/>
-    <cellStyle name="whkp4ywv" xfId="5"/>
-    <cellStyle name="whkp4ywv_Alternate" xfId="6"/>
-    <cellStyle name="bv0gdcvp" xfId="7"/>
-    <cellStyle name="bv0gdcvp_Alternate" xfId="8"/>
-    <cellStyle name="ekrmb01r" xfId="9"/>
-    <cellStyle name="ekrmb01r_Alternate" xfId="10"/>
+    <cellStyle name="fagh0zfw" xfId="1"/>
+    <cellStyle name="fagh0zfw_Alternate" xfId="2"/>
+    <cellStyle name="pcslufyy" xfId="3"/>
+    <cellStyle name="pcslufyy_Alternate" xfId="4"/>
+    <cellStyle name="lft3ocjn" xfId="5"/>
+    <cellStyle name="lft3ocjn_Alternate" xfId="6"/>
+    <cellStyle name="n4do4wsm" xfId="7"/>
+    <cellStyle name="n4do4wsm_Alternate" xfId="8"/>
+    <cellStyle name="urt3bism" xfId="9"/>
+    <cellStyle name="urt3bism_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -479,13 +479,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>

--- a/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
+++ b/src/samples/FullFramework/iXlsxWriter.ConsoleApp/Output/Sample-25/Sample-25.xlsx
@@ -172,16 +172,16 @@
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="fagh0zfw" xfId="1"/>
-    <cellStyle name="fagh0zfw_Alternate" xfId="2"/>
-    <cellStyle name="pcslufyy" xfId="3"/>
-    <cellStyle name="pcslufyy_Alternate" xfId="4"/>
-    <cellStyle name="lft3ocjn" xfId="5"/>
-    <cellStyle name="lft3ocjn_Alternate" xfId="6"/>
-    <cellStyle name="n4do4wsm" xfId="7"/>
-    <cellStyle name="n4do4wsm_Alternate" xfId="8"/>
-    <cellStyle name="urt3bism" xfId="9"/>
-    <cellStyle name="urt3bism_Alternate" xfId="10"/>
+    <cellStyle name="ndvijaec" xfId="1"/>
+    <cellStyle name="ndvijaec_Alternate" xfId="2"/>
+    <cellStyle name="aoxbc3vd" xfId="3"/>
+    <cellStyle name="aoxbc3vd_Alternate" xfId="4"/>
+    <cellStyle name="5njaiugt" xfId="5"/>
+    <cellStyle name="5njaiugt_Alternate" xfId="6"/>
+    <cellStyle name="ekzag3em" xfId="7"/>
+    <cellStyle name="ekzag3em_Alternate" xfId="8"/>
+    <cellStyle name="nmnq4rt3" xfId="9"/>
+    <cellStyle name="nmnq4rt3_Alternate" xfId="10"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
